--- a/csv/excel/user.xlsx
+++ b/csv/excel/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adhim\SEMESTER 4\Manajemen Basis Data\Spotitip V2\csv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23048978-8691-44FF-AF47-72105185A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DABAF0-3524-48AA-BEB3-2EECCF4D8883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="2006">
   <si>
     <t xml:space="preserve"> id</t>
   </si>
@@ -6040,6 +6040,9 @@
   </si>
   <si>
     <t>US98</t>
+  </si>
+  <si>
+    <t>US99</t>
   </si>
 </sst>
 </file>
@@ -6388,8 +6391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A500"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16403,8 +16406,8 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A501" s="1">
-        <v>99</v>
+      <c r="A501" s="1" t="s">
+        <v>2005</v>
       </c>
       <c r="B501" t="s">
         <v>1503</v>
